--- a/data/trans_dic/P32B-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P32B-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -729,22 +730,22 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 5,64</t>
+          <t>1,23; 5,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 5,54</t>
+          <t>1,03; 5,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 6,39</t>
+          <t>0,84; 6,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,99</t>
+          <t>0,0; 4,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,32 +755,32 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,5</t>
+          <t>0,0; 2,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,58</t>
+          <t>0,3; 3,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,84</t>
+          <t>0,22; 1,86</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,78</t>
+          <t>0,87; 3,76</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,46</t>
+          <t>0,86; 3,83</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,1</t>
+          <t>0,96; 4,54</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,53</t>
+          <t>0,0; 2,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,99</t>
+          <t>0,0; 2,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,39; 4,08</t>
+          <t>0,4; 4,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,85</t>
+          <t>0,0; 2,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,93</t>
+          <t>0,0; 4,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,28</t>
+          <t>0,0; 4,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,7</t>
+          <t>0,0; 2,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 5,06</t>
+          <t>0,72; 4,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,15</t>
+          <t>0,26; 2,14</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,45</t>
+          <t>0,25; 2,18</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,66</t>
+          <t>0,43; 2,59</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,39</t>
+          <t>0,46; 2,3</t>
         </is>
       </c>
     </row>
@@ -1004,22 +1005,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,63</t>
+          <t>0,0; 1,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,15; 6,61</t>
+          <t>2,25; 7,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,7</t>
+          <t>0,62; 3,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 5,07</t>
+          <t>0,6; 4,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,7 +1035,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,75</t>
+          <t>0,0; 13,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,22 +1045,22 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,57</t>
+          <t>0,0; 1,64</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 5,37</t>
+          <t>1,8; 5,8</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,93</t>
+          <t>1,01; 3,86</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,02</t>
+          <t>0,44; 4,01</t>
         </is>
       </c>
     </row>
@@ -1144,37 +1145,37 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,66</t>
+          <t>0,65; 2,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,0; 5,09</t>
+          <t>2,17; 5,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 4,03</t>
+          <t>1,28; 4,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 4,46</t>
+          <t>1,15; 4,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,61</t>
+          <t>0,48; 4,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,27</t>
+          <t>0,0; 2,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,9</t>
+          <t>0,34; 3,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,22 +1185,22 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,45</t>
+          <t>0,73; 2,46</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,65; 3,77</t>
+          <t>1,67; 3,91</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,21</t>
+          <t>1,24; 3,13</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,89</t>
+          <t>0,66; 2,7</t>
         </is>
       </c>
     </row>
@@ -1284,32 +1285,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,73</t>
+          <t>0,0; 2,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,47</t>
+          <t>0,5; 3,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,67; 4,12</t>
+          <t>0,82; 4,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,37; 5,5</t>
+          <t>1,4; 5,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,44</t>
+          <t>0,0; 4,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,2</t>
+          <t>0,0; 3,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,27 +1320,27 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,84; 4,66</t>
+          <t>0,79; 4,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,35</t>
+          <t>0,25; 2,37</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,72</t>
+          <t>0,6; 2,72</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,51</t>
+          <t>0,55; 2,53</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,39; 4,3</t>
+          <t>1,4; 4,45</t>
         </is>
       </c>
     </row>
@@ -1424,17 +1425,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,33</t>
+          <t>0,0; 4,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,15; 9,39</t>
+          <t>2,09; 9,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,59; 5,75</t>
+          <t>0,58; 5,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,42 +1445,42 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,12</t>
+          <t>0,0; 1,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,36</t>
+          <t>0,0; 2,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,43</t>
+          <t>0,38; 3,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,66</t>
+          <t>0,0; 9,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,05</t>
+          <t>0,0; 1,97</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,38</t>
+          <t>0,99; 3,89</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,34</t>
+          <t>0,89; 3,64</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,27</t>
+          <t>0,0; 5,18</t>
         </is>
       </c>
     </row>
@@ -1569,57 +1570,57 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,16; 3,85</t>
+          <t>2,18; 3,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,56; 2,95</t>
+          <t>1,56; 2,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,34; 3,08</t>
+          <t>1,3; 2,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,97</t>
+          <t>0,45; 1,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,39</t>
+          <t>0,29; 1,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,59; 1,74</t>
+          <t>0,57; 1,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,14</t>
+          <t>0,52; 2,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,57; 1,31</t>
+          <t>0,6; 1,31</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,62; 2,72</t>
+          <t>1,63; 2,72</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,31; 2,23</t>
+          <t>1,27; 2,22</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,42</t>
+          <t>1,16; 2,38</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido mal o culpable por su forma de beber</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1895</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>8343</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>7343</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1943</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2883</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>8342</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7933</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>9287</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5813</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3614; 15644</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2984; 15635</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2378; 18852</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5278</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2103</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4210</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>496; 5557</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>916; 7774</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3872; 16648</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3806; 16936</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4244; 20153</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>969</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>983</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3871</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2058</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2165</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1112</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2948</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3028</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3148</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4983</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3840</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5337</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5784</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>946; 9830</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4278</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6961</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6894</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5529</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>965; 6580</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>967; 8084</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>995; 8624</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1869; 11159</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1588; 7950</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1742</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15425</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6080</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4176</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2110</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1742</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>15425</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>8190</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>4176</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6576</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8736; 28202</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2067; 13088</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1265; 10494</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1907</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2059</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7404</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1119</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6571</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8406; 27055</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3918; 14905</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1108; 10078</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>8771</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>22293</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>15447</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>11632</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3077</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>978</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3782</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>11848</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>23271</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>19229</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>13658</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4357; 17480</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>14396; 33523</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>8447; 26628</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>5845; 22215</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>931; 9019</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5341</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1001; 9464</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6867</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>6324; 21210</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>14883; 34924</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>11847; 29914</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>6124; 24927</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>908</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4548</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6083</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>6742</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2190</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2131</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2771</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>3098</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>6679</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>6083</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>9512</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4569</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1530; 9443</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2610; 12860</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3236; 12896</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6751</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6698</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1991</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1030; 6424</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>904; 8429</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2951; 13317</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2778; 12834</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>5057; 16107</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6871</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3743</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3830</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2228</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2075</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>8804</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>7573</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>2228</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6004</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2884; 13101</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>938; 9208</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4530</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4113</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7346</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>965; 8860</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 11422</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7037</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>3967; 15631</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>3684; 15085</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0; 11196</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>15343</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>58462</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>42235</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>30786</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>9331</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>7207</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>11756</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>11915</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>24674</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>65668</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>53991</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>42701</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>8882; 24929</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>44512; 76288</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>31091; 57030</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>20111; 45152</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>4061; 16261</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>3055; 14656</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>6456; 19578</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>5185; 21668</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>16622; 36305</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>50303; 83879</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>39854; 69706</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>29504; 60480</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P32B-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P32B-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
